--- a/excel/informes/INVENTARIO TO.xlsx
+++ b/excel/informes/INVENTARIO TO.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
     <sheet name="BASE DE DATOS" sheetId="2" r:id="rId2"/>
     <sheet name="LEYENDA" sheetId="3" r:id="rId3"/>
+    <sheet name="INVENTARIO MODIFICADO" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BASE DE DATOS'!$A$1:$K$122</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INVENTARIO!$A$1:$L$145</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'INVENTARIO MODIFICADO'!$A$1:$K$145</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -903,8 +905,271 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>CONTABILIDAD</author>
+    <author>OF_ELALTO_1</author>
+    <author>Triangulo</author>
+    <author>CONTADORA</author>
+  </authors>
+  <commentList>
+    <comment ref="C20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CONTABILIDAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ISLA 3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OF_ELALTO_1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+servicios y venta Metalicos - Enrique Zapata peña
+F/03-955 (07-03-17)
+F/03-967 (11/04/17)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CONTABILIDAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DEPRECIACION 39134
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C41" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OF_ELALTO_1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Oficina Piura
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CONTABILIDAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DEPRECIACION 39134</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C63" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OF_ELALTO_1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Oficina Gerencia Sra. YRS
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C95" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Triangulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+39135</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C104" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OF_ELALTO_1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+APORTE DE CAPITAL
+MARINA CONTRERAS 
+PUESTO EN MARCHA ABRIL 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C105" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CONTABILIDAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DEPRECIACION 39135
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C131" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CONTADORA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Para Habitaciones del Servicentro
+Maestro Peru</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="446">
   <si>
     <t>NOMBRE DE INVENTARIADOR:</t>
   </si>
@@ -2067,9 +2332,6 @@
     <t>S/S</t>
   </si>
   <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
     <t>x542020</t>
   </si>
   <si>
@@ -2242,6 +2504,9 @@
   </si>
   <si>
     <t>ESTA EN TECHO TERCER PISO, EL ALTO</t>
+  </si>
+  <si>
+    <t>CÓDIGO PCGE</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2619,13 +2884,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -2767,6 +3052,21 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2846,6 +3146,79 @@
         <a:xfrm>
           <a:off x="489859" y="108860"/>
           <a:ext cx="2626082" cy="925284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612326</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2054680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24022" t="19792" r="25674" b="7292"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="612326" y="307926"/>
+          <a:ext cx="2993568" cy="930323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3169,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A132" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,52 +3576,52 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3285,12 +3658,12 @@
       <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
       <c r="J7" s="24" t="s">
         <v>2</v>
       </c>
@@ -3304,12 +3677,12 @@
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="20"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -3352,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>8</v>
@@ -3402,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3472,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3540,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C16" s="26" t="str">
         <f>IFERROR(VLOOKUP(B16,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
@@ -3663,7 +4036,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3698,7 +4071,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,7 +4138,7 @@
         <v>13</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3832,7 +4205,7 @@
         <v>13</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3900,7 +4273,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3967,7 +4340,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4031,14 +4404,14 @@
         <v>33311</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4076,7 +4449,7 @@
         <v>13</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4269,7 +4642,7 @@
         <v>13</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4741,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,7 +4778,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4490,7 +4863,7 @@
         <v/>
       </c>
       <c r="F44" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>12</v>
@@ -4504,7 +4877,7 @@
         <v>13</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4526,7 +4899,7 @@
         <v/>
       </c>
       <c r="F45" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>12</v>
@@ -4540,7 +4913,7 @@
         <v>13</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4765,7 +5138,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,7 +5222,7 @@
         <v>126</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E55" s="25" t="str">
         <f>IFERROR(VLOOKUP(B55,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
@@ -4879,7 +5252,7 @@
         <v>129</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E56" s="25" t="str">
         <f>IFERROR(VLOOKUP(B56,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
@@ -4900,7 +5273,7 @@
         <v>13</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4938,7 +5311,7 @@
         <v>13</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,13 +5344,13 @@
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5040,7 +5413,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
       <c r="L60" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5071,14 +5444,14 @@
         <v>33521</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5099,7 +5472,7 @@
         <v/>
       </c>
       <c r="F62" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>12</v>
@@ -5113,7 +5486,7 @@
         <v>13</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5130,10 +5503,10 @@
         <v>143</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G63" s="17" t="s">
         <v>12</v>
@@ -5147,7 +5520,7 @@
         <v>13</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5247,7 +5620,7 @@
         <v>13</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5476,7 +5849,7 @@
         <v>13</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5514,7 +5887,7 @@
         <v>13</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5613,7 +5986,7 @@
         <v>13</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5651,7 +6024,7 @@
         <v>24</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,7 +6062,7 @@
         <v>13</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5727,7 +6100,7 @@
         <v>13</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5916,7 +6289,7 @@
         <v>13</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5954,7 +6327,7 @@
         <v>13</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>186</v>
@@ -6021,7 +6394,7 @@
         <v>13</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6059,7 +6432,7 @@
         <v>13</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6097,7 +6470,7 @@
         <v>13</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6135,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6173,7 +6546,7 @@
         <v>13</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6211,7 +6584,7 @@
         <v>13</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6250,7 +6623,7 @@
         <v>86</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C96" s="26" t="str">
         <f>IFERROR(VLOOKUP(B96,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
@@ -6280,7 +6653,7 @@
         <v>13</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,7 +6661,7 @@
         <v>87</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C97" s="26" t="str">
         <f>IFERROR(VLOOKUP(B97,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
@@ -6318,7 +6691,7 @@
         <v>13</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6326,7 +6699,7 @@
         <v>88</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C98" s="26" t="str">
         <f>IFERROR(VLOOKUP(B98,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
@@ -6356,7 +6729,7 @@
         <v>13</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6426,7 +6799,7 @@
         <v>91</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C101" s="27" t="s">
         <v>202</v>
@@ -6504,14 +6877,14 @@
         <v>33631</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J103" s="19"/>
       <c r="K103" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6538,14 +6911,14 @@
         <v>33631</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J104" s="19"/>
       <c r="K104" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6825,7 +7198,7 @@
         <v>24</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6891,7 +7264,7 @@
         <v>13</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6947,7 +7320,7 @@
         <v>109</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C119" s="26" t="str">
         <f>IFERROR(VLOOKUP(B119,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
@@ -7000,7 +7373,7 @@
       <c r="J120" s="19"/>
       <c r="K120" s="19"/>
       <c r="L120" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7058,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7312,7 +7685,7 @@
         <v>13</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7604,8 +7977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView topLeftCell="A90" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8003,7 +8376,7 @@
         <v>249</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>95</v>
@@ -8199,7 +8572,7 @@
         <v>253</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>102</v>
@@ -8208,7 +8581,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -8335,7 +8708,7 @@
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28" t="s">
@@ -8356,7 +8729,7 @@
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28" t="s">
@@ -8541,7 +8914,7 @@
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28" t="s">
@@ -8721,7 +9094,7 @@
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -8744,7 +9117,7 @@
         <v>144</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F54" s="28" t="s">
         <v>300</v>
@@ -9511,7 +9884,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>193</v>
@@ -9536,7 +9909,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>195</v>
@@ -9561,7 +9934,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B89" s="27" t="s">
         <v>197</v>
@@ -9589,7 +9962,7 @@
         <v>5063340508</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>199</v>
@@ -10270,7 +10643,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10279,18 +10652,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="56" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1" s="57"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="61" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -10437,4 +10810,4277 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="54">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D11,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Surtidor BENNETT  (G-95)</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D11,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BENNETT</v>
+      </c>
+      <c r="F11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D11,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>1012-4013</v>
+      </c>
+      <c r="G11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D11,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D12,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Surtidor BENNETT </v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D12,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BENNETT</v>
+      </c>
+      <c r="F12" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D12,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>1017-4013</v>
+      </c>
+      <c r="G12" s="25">
+        <f>IFERROR(VLOOKUP(D12,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D13,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Surtidor BENNETT (G-90)</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D13,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BENNETT</v>
+      </c>
+      <c r="F13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D13,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>1012-4013</v>
+      </c>
+      <c r="G13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D13,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="25">
+        <v>6070</v>
+      </c>
+      <c r="G14" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D14,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>5</v>
+      </c>
+      <c r="B15" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D15,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D15,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D15,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>6</v>
+      </c>
+      <c r="B16" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D16,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>01 Dispensador  BENNETT  Electro G90-D2/ 2 mang</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D16,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BENNETT</v>
+      </c>
+      <c r="F16" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D16,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>2222LM-25C</v>
+      </c>
+      <c r="G16" s="25">
+        <f>IFERROR(VLOOKUP(D16,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D17,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D17,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D17,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>8</v>
+      </c>
+      <c r="B18" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D18,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D18,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D18,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D19,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D19,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D19,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>10</v>
+      </c>
+      <c r="B20" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D20,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>11</v>
+      </c>
+      <c r="B21" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D21,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>12</v>
+      </c>
+      <c r="B22" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C22" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D22,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Surtidor BENNETT Elect. mangueras diesel</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D22,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BENNETT</v>
+      </c>
+      <c r="F22" s="25">
+        <f>IFERROR(VLOOKUP(D22,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>3822</v>
+      </c>
+      <c r="G22" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D22,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>13</v>
+      </c>
+      <c r="B23" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D23,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D23,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D24,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D24,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D24,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>15</v>
+      </c>
+      <c r="B25" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D25,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D25,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D25,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D26,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D26,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D26,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>17</v>
+      </c>
+      <c r="B27" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C27" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D27,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Grupo Electrògeno Caterpillar </v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D27,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>Caterpillar</v>
+      </c>
+      <c r="F27" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D27,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>GEP110</v>
+      </c>
+      <c r="G27" s="25">
+        <f>IFERROR(VLOOKUP(D27,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>18</v>
+      </c>
+      <c r="B28" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D28,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D28,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D28,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>19</v>
+      </c>
+      <c r="B29" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D29,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D29,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D29,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>20</v>
+      </c>
+      <c r="B30" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C30" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D30,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Dispensador Kraus GLP </v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D30,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>KRAUS</v>
+      </c>
+      <c r="F30" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D30,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>KRPY2H</v>
+      </c>
+      <c r="G30" s="25">
+        <f>IFERROR(VLOOKUP(D30,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>21</v>
+      </c>
+      <c r="B31" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C31" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D31,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Surtidor Electrónico BENNETT (02mang. Diesel)</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D31,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BENNETT</v>
+      </c>
+      <c r="F31" s="25">
+        <f>IFERROR(VLOOKUP(D31,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>3822</v>
+      </c>
+      <c r="G31" s="25">
+        <f>IFERROR(VLOOKUP(D31,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>22</v>
+      </c>
+      <c r="B32" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C32" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D32,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Surtidor Electrónico BENNETT (02mang.Diesel-Gasolina)</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D32,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BENNETT</v>
+      </c>
+      <c r="F32" s="25">
+        <f>IFERROR(VLOOKUP(D32,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>3822</v>
+      </c>
+      <c r="G32" s="25">
+        <f>IFERROR(VLOOKUP(D32,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>23</v>
+      </c>
+      <c r="B33" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D33,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D33,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>24</v>
+      </c>
+      <c r="B34" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E34" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D34,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F34" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D34,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G34" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D34,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>25</v>
+      </c>
+      <c r="B35" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D35,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D35,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D35,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>26</v>
+      </c>
+      <c r="B36" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E36" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D36,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D36,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D36,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>27</v>
+      </c>
+      <c r="B37" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C37" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D37,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Grupo Electrògeno Olympian GEP125-CB </v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D37,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>OLYMPIAN</v>
+      </c>
+      <c r="F37" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D37,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>GEP125-CB</v>
+      </c>
+      <c r="G37" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D37,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Amarillo</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>28</v>
+      </c>
+      <c r="B38" s="17">
+        <v>33311</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D38,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F38" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D38,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G38" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D38,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>29</v>
+      </c>
+      <c r="B39" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E39" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D39,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F39" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D39,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D39,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>30</v>
+      </c>
+      <c r="B40" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D40,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D40,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D40,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>31</v>
+      </c>
+      <c r="B41" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D41,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D41,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G41" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D41,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>32</v>
+      </c>
+      <c r="B42" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C42" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D42,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Tv. LCD SONY </v>
+      </c>
+      <c r="D42" s="25">
+        <v>1748831</v>
+      </c>
+      <c r="E42" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D42,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SONY LCD</v>
+      </c>
+      <c r="F42" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D42,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>KLU-206300A</v>
+      </c>
+      <c r="G42" s="25">
+        <f>IFERROR(VLOOKUP(D42,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>33</v>
+      </c>
+      <c r="B43" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D43,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D43,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D43,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>34</v>
+      </c>
+      <c r="B44" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D44,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D44,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>35</v>
+      </c>
+      <c r="B45" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D45,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D45,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>36</v>
+      </c>
+      <c r="B46" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D46,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D46,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D46,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>37</v>
+      </c>
+      <c r="B47" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D47,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D47,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D47,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>38</v>
+      </c>
+      <c r="B48" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E48" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D48,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F48" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D48,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D48,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>39</v>
+      </c>
+      <c r="B49" s="17">
+        <v>33511</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D49,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D49,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G49" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D49,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>40</v>
+      </c>
+      <c r="B50" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D50,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D50,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G50" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D50,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>41</v>
+      </c>
+      <c r="B51" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C51" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D51,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Tv. /C SAMSUNG </v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D51,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F51" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D51,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>CL-21Z50</v>
+      </c>
+      <c r="G51" s="25">
+        <f>IFERROR(VLOOKUP(D51,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>42</v>
+      </c>
+      <c r="B52" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C52" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D52,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Tv. /C SAMSUNG </v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D52,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F52" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D52,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>CL-21Z50</v>
+      </c>
+      <c r="G52" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D52,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>43</v>
+      </c>
+      <c r="B53" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C53" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D53,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Tv. LCD </v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D53,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>LCD</v>
+      </c>
+      <c r="F53" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D53,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>AOC-L19W765</v>
+      </c>
+      <c r="G53" s="25">
+        <f>IFERROR(VLOOKUP(D53,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>44</v>
+      </c>
+      <c r="B54" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C54" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D54,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Lavadora Samsung </v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D54,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F54" s="25">
+        <f>IFERROR(VLOOKUP(D54,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D54,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Blanco</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>45</v>
+      </c>
+      <c r="B55" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D55,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G55" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D55,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>46</v>
+      </c>
+      <c r="B56" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D56,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>47</v>
+      </c>
+      <c r="B57" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C57" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D57,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Tv. /C SAMSUNG </v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D57,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F57" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D57,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>CL-21Z50</v>
+      </c>
+      <c r="G57" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D57,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>48</v>
+      </c>
+      <c r="B58" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E58" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D58,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D58,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G58" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D58,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>49</v>
+      </c>
+      <c r="B59" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C59" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D59,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Cocina SURGE Semi Industrial MOD 2.25.10</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D59,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SURGE</v>
+      </c>
+      <c r="F59" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D59,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>SEMI INDUSTRIAL</v>
+      </c>
+      <c r="G59" s="25">
+        <f>IFERROR(VLOOKUP(D59,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <v>50</v>
+      </c>
+      <c r="B60" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D60,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>51</v>
+      </c>
+      <c r="B61" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D61,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G61" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D61,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <v>52</v>
+      </c>
+      <c r="B62" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D62,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>53</v>
+      </c>
+      <c r="B63" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>54</v>
+      </c>
+      <c r="B64" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C64" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D64,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Aire Acondicionado </v>
+      </c>
+      <c r="D64" s="25">
+        <v>20180054</v>
+      </c>
+      <c r="E64" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D64,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>MIRAY</v>
+      </c>
+      <c r="F64" s="25">
+        <f>IFERROR(VLOOKUP(D64,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="25">
+        <f>IFERROR(VLOOKUP(D64,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>55</v>
+      </c>
+      <c r="B65" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C65" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D65,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Aire Acondicionado </v>
+      </c>
+      <c r="D65" s="25">
+        <v>20180057</v>
+      </c>
+      <c r="E65" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D65,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>MIRAY</v>
+      </c>
+      <c r="F65" s="25">
+        <f>IFERROR(VLOOKUP(D65,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="25">
+        <f>IFERROR(VLOOKUP(D65,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>56</v>
+      </c>
+      <c r="B66" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E66" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D66,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F66" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D66,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>57</v>
+      </c>
+      <c r="B67" s="17">
+        <v>33521</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D67,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D67,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D67,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>58</v>
+      </c>
+      <c r="B68" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C68" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D68,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">LAPTOP HP PAVILON </v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D68,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F68" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D68,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>PAVILON DV6-3225 DX</v>
+      </c>
+      <c r="G68" s="25">
+        <f>IFERROR(VLOOKUP(D68,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>59</v>
+      </c>
+      <c r="B69" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C69" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D69,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Impresora FX-2190 </v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E69" s="25">
+        <f>IFERROR(VLOOKUP(D69,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D69,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>FX-2190</v>
+      </c>
+      <c r="G69" s="25">
+        <f>IFERROR(VLOOKUP(D69,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>60</v>
+      </c>
+      <c r="B70" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C70" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D70,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Impresora HP </v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D70,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F70" s="25">
+        <f>IFERROR(VLOOKUP(D70,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="25">
+        <f>IFERROR(VLOOKUP(D70,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>61</v>
+      </c>
+      <c r="B71" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C71" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D71,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Monitor LCD S:20A300B ZT3SH9NB502125</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="25">
+        <f>IFERROR(VLOOKUP(D71,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D71,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>LCD</v>
+      </c>
+      <c r="G71" s="25">
+        <f>IFERROR(VLOOKUP(D71,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>62</v>
+      </c>
+      <c r="B72" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C72" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D72,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Impresora Multifuncional Brother S:KOJ982774</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E72" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D72,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BROTHER</v>
+      </c>
+      <c r="F72" s="25">
+        <f>IFERROR(VLOOKUP(D72,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="25">
+        <f>IFERROR(VLOOKUP(D72,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>63</v>
+      </c>
+      <c r="B73" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C73" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D73,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">PC HP Touchsmart </v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D73,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F73" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D73,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v xml:space="preserve"> Touchsmart</v>
+      </c>
+      <c r="G73" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D73,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>64</v>
+      </c>
+      <c r="B74" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C74" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D74,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>PC HP Serie: 3CR2140KDM</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D74,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F74" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D74,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v xml:space="preserve"> Touchsmart</v>
+      </c>
+      <c r="G74" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D74,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>65</v>
+      </c>
+      <c r="B75" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D75,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <v>66</v>
+      </c>
+      <c r="B76" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C76" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D76,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Computadora HP Omni 120 PC 20-B014 S:3CR246177M</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D76,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F76" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D76,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>Omni 120 PC 20-B014</v>
+      </c>
+      <c r="G76" s="25">
+        <f>IFERROR(VLOOKUP(D76,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
+        <v>67</v>
+      </c>
+      <c r="B77" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C77" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D77,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Computadora HP Omni 120 PC</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E77" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D77,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F77" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D77,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>Omni 120 PC</v>
+      </c>
+      <c r="G77" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D77,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>68</v>
+      </c>
+      <c r="B78" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C78" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D78,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Multifuncional Brother - MFC 7860 DW </v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E78" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D78,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BROTHER</v>
+      </c>
+      <c r="F78" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D78,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v xml:space="preserve">MFC 7860 DW </v>
+      </c>
+      <c r="G78" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D78,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Ploma</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <v>69</v>
+      </c>
+      <c r="B79" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C79" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D79,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">PC HP Omni 120-1134 </v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E79" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D79,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F79" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D79,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>Omni 120-1134</v>
+      </c>
+      <c r="G79" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D79,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <v>70</v>
+      </c>
+      <c r="B80" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C80" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D80,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">PC HP Omni 120-1134 </v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E80" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D80,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F80" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D80,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>Omni 120-1134</v>
+      </c>
+      <c r="G80" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D80,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>71</v>
+      </c>
+      <c r="B81" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D81,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D81,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D81,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <v>72</v>
+      </c>
+      <c r="B82" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C82" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D82,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">PC HP </v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D82,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F82" s="25">
+        <f>IFERROR(VLOOKUP(D82,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="25">
+        <f>IFERROR(VLOOKUP(D82,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>73</v>
+      </c>
+      <c r="B83" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C83" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D83,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>PC HP</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D83,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F83" s="25">
+        <f>IFERROR(VLOOKUP(D83,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="25">
+        <f>IFERROR(VLOOKUP(D83,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
+        <v>74</v>
+      </c>
+      <c r="B84" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D84,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>75</v>
+      </c>
+      <c r="B85" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G85" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D85,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23">
+        <v>76</v>
+      </c>
+      <c r="B86" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C86" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D86,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>PC ASUS</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D86,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>ASUS</v>
+      </c>
+      <c r="F86" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D86,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>I3-4150T</v>
+      </c>
+      <c r="G86" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D86,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
+        <v>77</v>
+      </c>
+      <c r="B87" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C87" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D87,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">PC LENOVO </v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E87" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D87,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>LENOVO</v>
+      </c>
+      <c r="F87" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D87,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>C-560</v>
+      </c>
+      <c r="G87" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D87,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23">
+        <v>78</v>
+      </c>
+      <c r="B88" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C88" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D88,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>PC HP</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E88" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D88,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>HP</v>
+      </c>
+      <c r="F88" s="25">
+        <f>IFERROR(VLOOKUP(D88,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="25">
+        <f>IFERROR(VLOOKUP(D88,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
+        <v>79</v>
+      </c>
+      <c r="B89" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D89,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
+        <v>80</v>
+      </c>
+      <c r="B90" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C90" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D90,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">IMPRESORA BROTHER 270 </v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E90" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D90,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>BROTHER</v>
+      </c>
+      <c r="F90" s="25">
+        <f>IFERROR(VLOOKUP(D90,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>270</v>
+      </c>
+      <c r="G90" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D90,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Ploma</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
+        <v>81</v>
+      </c>
+      <c r="B91" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C91" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D91,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Impresora Epson matriz de 9 pines, suministro ERC - 38</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D91,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>EPSON TM-U220A</v>
+      </c>
+      <c r="F91" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D91,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>M188A</v>
+      </c>
+      <c r="G91" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D91,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Ploma</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
+        <v>82</v>
+      </c>
+      <c r="B92" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C92" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D92,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Impresora Epson matriz de 9 pines, suministro ERC - 38</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E92" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D92,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>EPSON TM-U220A</v>
+      </c>
+      <c r="F92" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D92,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>M188A</v>
+      </c>
+      <c r="G92" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D92,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Ploma</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23">
+        <v>83</v>
+      </c>
+      <c r="B93" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C93" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D93,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Impresora Epson matriz de 9 pines, suministro ERC - 38</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D93,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>EPSON TM-U220A</v>
+      </c>
+      <c r="F93" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D93,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>M188A</v>
+      </c>
+      <c r="G93" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D93,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Ploma</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="K93" s="18"/>
+    </row>
+    <row r="94" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
+        <v>84</v>
+      </c>
+      <c r="B94" s="17">
+        <v>33611</v>
+      </c>
+      <c r="C94" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D94,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Impresora Epson matriz de 9 pines, suministro ERC - 38</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D94,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>EPSON TM-U220A</v>
+      </c>
+      <c r="F94" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D94,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>M188A</v>
+      </c>
+      <c r="G94" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D94,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>Ploma</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
+        <v>85</v>
+      </c>
+      <c r="B95" s="17">
+        <v>33621</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E95" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D95,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F95" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D95,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G95" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D95,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="18"/>
+    </row>
+    <row r="96" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
+        <v>86</v>
+      </c>
+      <c r="B96" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C96" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D96,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Video Cámaras SAMSUNG SME-2220N </v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="E96" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D96,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F96" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D96,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>SME-2220N</v>
+      </c>
+      <c r="G96" s="25">
+        <f>IFERROR(VLOOKUP(D96,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="K96" s="18"/>
+    </row>
+    <row r="97" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
+        <v>87</v>
+      </c>
+      <c r="B97" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C97" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D97,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Video Cámara SAMSUNG SME-222CN </v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="E97" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D97,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F97" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D97,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>SME-222CN</v>
+      </c>
+      <c r="G97" s="25">
+        <f>IFERROR(VLOOKUP(D97,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="K97" s="18"/>
+    </row>
+    <row r="98" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
+        <v>88</v>
+      </c>
+      <c r="B98" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C98" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D98,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Video Cámara SAMSUNG SME-2220 </v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="E98" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D98,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F98" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D98,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>SME-2220</v>
+      </c>
+      <c r="G98" s="25">
+        <f>IFERROR(VLOOKUP(D98,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="K98" s="18"/>
+    </row>
+    <row r="99" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
+        <v>89</v>
+      </c>
+      <c r="B99" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C99" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D99,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Video Cámara UNIDEN Modelo: UDW 20553, Instalación Cód. Barra 5063340508</v>
+      </c>
+      <c r="D99" s="25">
+        <v>5063340508</v>
+      </c>
+      <c r="E99" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D99,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>UNIDEN</v>
+      </c>
+      <c r="F99" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D99,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v>UDW 20553</v>
+      </c>
+      <c r="G99" s="25">
+        <f>IFERROR(VLOOKUP(D99,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="18"/>
+    </row>
+    <row r="100" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
+        <v>90</v>
+      </c>
+      <c r="B100" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D100,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G100" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D100,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="18"/>
+    </row>
+    <row r="101" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
+        <v>91</v>
+      </c>
+      <c r="B101" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F101" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D101,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G101" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D101,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="18"/>
+    </row>
+    <row r="102" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
+        <v>92</v>
+      </c>
+      <c r="B102" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G102" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D102,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
+        <v>93</v>
+      </c>
+      <c r="B103" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C103" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D103,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Sistema de Video Seguridad Swann </v>
+      </c>
+      <c r="D103" s="25">
+        <v>2898504160106</v>
+      </c>
+      <c r="E103" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D103,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v>SWANN</v>
+      </c>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>94</v>
+      </c>
+      <c r="B104" s="17">
+        <v>33631</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
+        <v>95</v>
+      </c>
+      <c r="B105" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E105" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D105,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="18"/>
+    </row>
+    <row r="106" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <v>96</v>
+      </c>
+      <c r="B106" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="18"/>
+    </row>
+    <row r="107" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
+        <v>97</v>
+      </c>
+      <c r="B107" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="18"/>
+    </row>
+    <row r="108" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23">
+        <v>98</v>
+      </c>
+      <c r="B108" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C108" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D108,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>1 Gener. De Corriente HONDA S:gt-05-1461502</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="18"/>
+    </row>
+    <row r="109" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23">
+        <v>99</v>
+      </c>
+      <c r="B109" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="18"/>
+    </row>
+    <row r="110" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
+        <v>100</v>
+      </c>
+      <c r="B110" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C110" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D110,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Caja Reg. Electron. CASIO TK 3200 S 0800928</v>
+      </c>
+      <c r="D110" s="25">
+        <v>800928</v>
+      </c>
+      <c r="E110" s="25" t="str">
+        <f>IFERROR(VLOOKUP(C110,'BASE DE DATOS'!B$1:I$122,2,FALSE),"")</f>
+        <v>CASIO</v>
+      </c>
+      <c r="F110" s="25" t="str">
+        <f>IFERROR(VLOOKUP(E110,'BASE DE DATOS'!C$1:J$122,2,FALSE),"")</f>
+        <v>TK 3200</v>
+      </c>
+      <c r="G110" s="25">
+        <f>IFERROR(VLOOKUP(F110,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="18"/>
+    </row>
+    <row r="111" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
+        <v>101</v>
+      </c>
+      <c r="B111" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E111" s="25">
+        <f>IFERROR(VLOOKUP(C111,'BASE DE DATOS'!B$1:I$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="18"/>
+    </row>
+    <row r="112" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23">
+        <v>102</v>
+      </c>
+      <c r="B112" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C112" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D112,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">1MP Ticketera EPSON M U 220 </v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E112" s="25" t="str">
+        <f>IFERROR(VLOOKUP(C112,'BASE DE DATOS'!B$1:I$122,2,FALSE),"")</f>
+        <v>EPSON</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G112" s="25">
+        <f>IFERROR(VLOOKUP(F112,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="18"/>
+    </row>
+    <row r="113" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23">
+        <v>103</v>
+      </c>
+      <c r="B113" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="18"/>
+    </row>
+    <row r="114" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23">
+        <v>104</v>
+      </c>
+      <c r="B114" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C114" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D114,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Caja Registradora Marca Casio Modelo TK-3200 Serie:801813</v>
+      </c>
+      <c r="D114" s="25">
+        <v>801813</v>
+      </c>
+      <c r="E114" s="25" t="str">
+        <f>IFERROR(VLOOKUP(C114,'BASE DE DATOS'!B$1:I$122,2,FALSE),"")</f>
+        <v>CASIO</v>
+      </c>
+      <c r="F114" s="25" t="str">
+        <f>IFERROR(VLOOKUP(E114,'BASE DE DATOS'!C$1:J$122,2,FALSE),"")</f>
+        <v>TK 3200</v>
+      </c>
+      <c r="G114" s="25">
+        <f>IFERROR(VLOOKUP(F114,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J114" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="K114" s="18"/>
+    </row>
+    <row r="115" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="23">
+        <v>105</v>
+      </c>
+      <c r="B115" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E115" s="25">
+        <f>IFERROR(VLOOKUP(C115,'BASE DE DATOS'!B$1:I$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="25" t="str">
+        <f>IFERROR(VLOOKUP(E115,'BASE DE DATOS'!C$1:J$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G115" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F115,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="18"/>
+    </row>
+    <row r="116" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="23">
+        <v>106</v>
+      </c>
+      <c r="B116" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G116" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F116,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>Negro</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="K116" s="18"/>
+    </row>
+    <row r="117" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23">
+        <v>107</v>
+      </c>
+      <c r="B117" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="18"/>
+    </row>
+    <row r="118" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="23">
+        <v>108</v>
+      </c>
+      <c r="B118" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="18"/>
+    </row>
+    <row r="119" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
+        <v>109</v>
+      </c>
+      <c r="B119" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C119" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D119,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v>Motobomba sopco 4*4 Modelo 186F</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="E119" s="25" t="str">
+        <f>IFERROR(VLOOKUP(C119,'BASE DE DATOS'!B$1:I$122,2,FALSE),"")</f>
+        <v>SOPCO</v>
+      </c>
+      <c r="F119" s="25" t="str">
+        <f>IFERROR(VLOOKUP(E119,'BASE DE DATOS'!C$1:J$122,2,FALSE),"")</f>
+        <v>186F</v>
+      </c>
+      <c r="G119" s="25">
+        <f>IFERROR(VLOOKUP(F119,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="18"/>
+    </row>
+    <row r="120" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="23">
+        <v>110</v>
+      </c>
+      <c r="B120" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F120,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="K120" s="18"/>
+    </row>
+    <row r="121" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="23">
+        <v>111</v>
+      </c>
+      <c r="B121" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F121,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="18"/>
+    </row>
+    <row r="122" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="23">
+        <v>112</v>
+      </c>
+      <c r="B122" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F122,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="K122" s="18"/>
+    </row>
+    <row r="123" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="23">
+        <v>113</v>
+      </c>
+      <c r="B123" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F123,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="18"/>
+    </row>
+    <row r="124" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
+        <v>114</v>
+      </c>
+      <c r="B124" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F124,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="18"/>
+    </row>
+    <row r="125" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
+        <v>115</v>
+      </c>
+      <c r="B125" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G125" s="25">
+        <f>IFERROR(VLOOKUP(F125,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="18"/>
+    </row>
+    <row r="126" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="23">
+        <v>116</v>
+      </c>
+      <c r="B126" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F126,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="18"/>
+    </row>
+    <row r="127" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23">
+        <v>117</v>
+      </c>
+      <c r="B127" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G127" s="25">
+        <f>IFERROR(VLOOKUP(F127,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="18"/>
+    </row>
+    <row r="128" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="23">
+        <v>118</v>
+      </c>
+      <c r="B128" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="G128" s="25">
+        <f>IFERROR(VLOOKUP(F128,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="18"/>
+    </row>
+    <row r="129" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23">
+        <v>119</v>
+      </c>
+      <c r="B129" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C129" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D129,'BASE DE DATOS'!A$1:H$122,2,FALSE),"")</f>
+        <v xml:space="preserve">Maquina Registradora Modelo TK6000 </v>
+      </c>
+      <c r="D129" s="25">
+        <v>202184</v>
+      </c>
+      <c r="E129" s="25">
+        <f>IFERROR(VLOOKUP(C129,'BASE DE DATOS'!B$1:I$122,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="25" t="str">
+        <f>IFERROR(VLOOKUP(E129,'BASE DE DATOS'!C$1:J$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G129" s="25" t="str">
+        <f>IFERROR(VLOOKUP(F129,'BASE DE DATOS'!D$1:K$122,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="18"/>
+    </row>
+    <row r="130" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="23">
+        <v>120</v>
+      </c>
+      <c r="B130" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="18"/>
+    </row>
+    <row r="131" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23">
+        <v>121</v>
+      </c>
+      <c r="B131" s="17">
+        <v>33691</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="K131" s="18"/>
+    </row>
+    <row r="132" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="23">
+        <v>122</v>
+      </c>
+      <c r="B132" s="53"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="19"/>
+    </row>
+    <row r="133" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="23">
+        <v>123</v>
+      </c>
+      <c r="B133" s="53"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="19"/>
+    </row>
+    <row r="134" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="23">
+        <v>124</v>
+      </c>
+      <c r="B134" s="53"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="19"/>
+    </row>
+    <row r="135" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="23">
+        <v>125</v>
+      </c>
+      <c r="B135" s="53"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="19"/>
+    </row>
+    <row r="136" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="23">
+        <v>126</v>
+      </c>
+      <c r="B136" s="53"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="19"/>
+    </row>
+    <row r="137" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23">
+        <v>127</v>
+      </c>
+      <c r="B137" s="53"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="19"/>
+    </row>
+    <row r="138" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="23">
+        <v>128</v>
+      </c>
+      <c r="B138" s="53"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="19"/>
+    </row>
+    <row r="139" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="23">
+        <v>129</v>
+      </c>
+      <c r="B139" s="53"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="19"/>
+    </row>
+    <row r="140" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="23">
+        <v>130</v>
+      </c>
+      <c r="B140" s="53"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="19"/>
+    </row>
+    <row r="141" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23">
+        <v>131</v>
+      </c>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D141,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F141" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D141,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G141" s="30" t="str">
+        <f>IFERROR(VLOOKUP(D141,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="19"/>
+    </row>
+    <row r="142" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="23">
+        <v>132</v>
+      </c>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D142,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F142" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D142,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G142" s="30" t="str">
+        <f>IFERROR(VLOOKUP(D142,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="19"/>
+    </row>
+    <row r="143" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="23">
+        <v>133</v>
+      </c>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D143,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F143" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D143,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G143" s="30" t="str">
+        <f>IFERROR(VLOOKUP(D143,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="19"/>
+    </row>
+    <row r="144" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="23">
+        <v>134</v>
+      </c>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D144,'BASE DE DATOS'!A$1:H$122,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F144" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D144,'BASE DE DATOS'!A$1:H$122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G144" s="30" t="str">
+        <f>IFERROR(VLOOKUP(D144,'BASE DE DATOS'!A$1:H$122,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="19"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="35" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>